--- a/data/trans_dic/P27F_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P27F_3_R-Estudios-trans_dic.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -98,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -111,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -498,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,83%)</t>
+          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -555,149 +563,109 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,15%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.02551198246412971</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1866072969041326</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1150191098112347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,63</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 50,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 34,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.06250911348795864</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.03738413492030218</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.1421589584727366</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4292953319018042</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2971759650983029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 4,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 6,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 4,14</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.01978425475199233</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.02354810835039182</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02161468068188766</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.004677687621713321</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.008573142867553028</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.009386313067339169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,44</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.05307399443384892</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05391352638988714</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.04337782694810881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -705,110 +673,115 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.006523992681501021</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.003076469074894284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.02952531648633741</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>0.01481014190912532</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 3,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 13,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 7,89</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.01630457571873502</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04701821867002786</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.03207008842292901</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.004669680811637361</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.02110777688766852</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.01663183666106871</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.038916619778073</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.112905979883743</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.06723310928672098</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -820,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -841,7 +814,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,83%)</t>
+          <t>Población que no pudo recibir medicamentos recetados por motivos económicos cuando los necesitaba (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -898,20 +871,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -921,262 +888,188 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5127</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>46659</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>51785</t>
-        </is>
+      <c r="C5" s="6" t="n">
+        <v>4374</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>40002</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>44376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0; 27758</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15488; 105592</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16762; 134205</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>14423</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>24373</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>92027</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>114656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8965</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12721</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21686</t>
-        </is>
+      <c r="C8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2383; 23678</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4368; 30582</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9526; 41873</t>
-        </is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>10344</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>11656</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>22001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>2446</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>4244</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>9554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>27750</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>26687</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2244</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2244</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0; 10110</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0; 10744</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>No Pertenece a Medición</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C13" s="6" t="n">
+        <v>2267</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>10258</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>10911</v>
       </c>
     </row>
     <row r="16">
@@ -1190,20 +1083,14 @@
           <t>n</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
+      <c r="C16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1213,60 +1100,64 @@
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>16336</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>59379</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>75715</t>
-        </is>
+      <c r="C17" s="6" t="n">
+        <v>16985</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>51659</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>68644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>4716; 39185</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>25328; 151084</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37821; 169260</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>4865</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>23191</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>35599</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>40541</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>124049</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>143908</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A10:A12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
